--- a/group-reports/tables/shahriar-1-2-tests-results-after-queue-test-2.xlsx
+++ b/group-reports/tables/shahriar-1-2-tests-results-after-queue-test-2.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
-          <t>Utility</t>
+          <t>Utility (Percent)</t>
         </is>
       </c>
     </row>
@@ -626,17 +626,17 @@
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>51 msec</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>5375</t>
+          <t>5375 msec</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
-          <t>2801.30</t>
+          <t>2801.30 msec</t>
         </is>
       </c>
       <c r="L3" s="1" t="inlineStr">
@@ -703,17 +703,17 @@
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>602</t>
+          <t>602 msec</t>
         </is>
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>14128</t>
+          <t>14128 msec</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
-          <t>7348.83</t>
+          <t>7348.83 msec</t>
         </is>
       </c>
       <c r="L4" s="1" t="inlineStr">
@@ -780,17 +780,17 @@
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>63 msec</t>
         </is>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>5225</t>
+          <t>5225 msec</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>2809.59</t>
+          <t>2809.59 msec</t>
         </is>
       </c>
       <c r="L5" s="1" t="inlineStr">
@@ -857,17 +857,17 @@
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>117 msec</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>4721</t>
+          <t>4721 msec</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
-          <t>2790.42</t>
+          <t>2790.42 msec</t>
         </is>
       </c>
       <c r="L6" s="1" t="inlineStr">
@@ -934,17 +934,17 @@
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>564</t>
+          <t>564 msec</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>15993</t>
+          <t>15993 msec</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
-          <t>8209.98</t>
+          <t>8209.98 msec</t>
         </is>
       </c>
       <c r="L7" s="1" t="inlineStr">
@@ -1011,17 +1011,17 @@
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>4645</t>
+          <t>4645 msec</t>
         </is>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>14251</t>
+          <t>14251 msec</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
-          <t>7731.50</t>
+          <t>7731.50 msec</t>
         </is>
       </c>
       <c r="L8" s="1" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>170 msec</t>
         </is>
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
-          <t>5311</t>
+          <t>5311 msec</t>
         </is>
       </c>
       <c r="K9" s="1" t="inlineStr">
         <is>
-          <t>2807.49</t>
+          <t>2807.49 msec</t>
         </is>
       </c>
       <c r="L9" s="1" t="inlineStr">
@@ -1165,17 +1165,17 @@
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>66 msec</t>
         </is>
       </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
-          <t>4496</t>
+          <t>4496 msec</t>
         </is>
       </c>
       <c r="K10" s="1" t="inlineStr">
         <is>
-          <t>2791.65</t>
+          <t>2791.65 msec</t>
         </is>
       </c>
       <c r="L10" s="1" t="inlineStr">
@@ -1242,17 +1242,17 @@
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>64 msec</t>
         </is>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>11127</t>
+          <t>11127 msec</t>
         </is>
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
-          <t>2961.12</t>
+          <t>2961.12 msec</t>
         </is>
       </c>
       <c r="L11" s="1" t="inlineStr">
@@ -1319,17 +1319,17 @@
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>443 msec</t>
         </is>
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
-          <t>5155</t>
+          <t>5155 msec</t>
         </is>
       </c>
       <c r="K12" s="1" t="inlineStr">
         <is>
-          <t>2801.29</t>
+          <t>2801.29 msec</t>
         </is>
       </c>
       <c r="L12" s="1" t="inlineStr">
@@ -1396,17 +1396,17 @@
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>88 msec</t>
         </is>
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>5218</t>
+          <t>5218 msec</t>
         </is>
       </c>
       <c r="K13" s="1" t="inlineStr">
         <is>
-          <t>2797.07</t>
+          <t>2797.07 msec</t>
         </is>
       </c>
       <c r="L13" s="1" t="inlineStr">
@@ -1473,17 +1473,17 @@
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>58 msec</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>5192</t>
+          <t>5192 msec</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
         <is>
-          <t>2797.48</t>
+          <t>2797.48 msec</t>
         </is>
       </c>
       <c r="L14" s="1" t="inlineStr">
@@ -1550,17 +1550,17 @@
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>976</t>
+          <t>976 msec</t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>15471</t>
+          <t>15471 msec</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
-          <t>8371.22</t>
+          <t>8371.22 msec</t>
         </is>
       </c>
       <c r="L15" s="1" t="inlineStr">
@@ -1627,17 +1627,17 @@
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>1039</t>
+          <t>1039 msec</t>
         </is>
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>14148</t>
+          <t>14148 msec</t>
         </is>
       </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
-          <t>7015.90</t>
+          <t>7015.90 msec</t>
         </is>
       </c>
       <c r="L16" s="1" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>127 msec</t>
         </is>
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>4753</t>
+          <t>4753 msec</t>
         </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
-          <t>2791.52</t>
+          <t>2791.52 msec</t>
         </is>
       </c>
       <c r="L17" s="1" t="inlineStr">
@@ -1781,17 +1781,17 @@
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>448 msec</t>
         </is>
       </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t>5225</t>
+          <t>5225 msec</t>
         </is>
       </c>
       <c r="K18" s="1" t="inlineStr">
         <is>
-          <t>2792.62</t>
+          <t>2792.62 msec</t>
         </is>
       </c>
       <c r="L18" s="1" t="inlineStr">
@@ -1858,17 +1858,17 @@
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>107 msec</t>
         </is>
       </c>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>5759</t>
+          <t>5759 msec</t>
         </is>
       </c>
       <c r="K19" s="1" t="inlineStr">
         <is>
-          <t>2961.38</t>
+          <t>2961.38 msec</t>
         </is>
       </c>
       <c r="L19" s="1" t="inlineStr">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>759</t>
+          <t>759 msec</t>
         </is>
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>5239</t>
+          <t>5239 msec</t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
-          <t>2800.14</t>
+          <t>2800.14 msec</t>
         </is>
       </c>
       <c r="L20" s="1" t="inlineStr">
@@ -2012,17 +2012,17 @@
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
-          <t>910</t>
+          <t>910 msec</t>
         </is>
       </c>
       <c r="J21" s="1" t="inlineStr">
         <is>
-          <t>12541</t>
+          <t>12541 msec</t>
         </is>
       </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
-          <t>7299.51</t>
+          <t>7299.51 msec</t>
         </is>
       </c>
       <c r="L21" s="1" t="inlineStr">
@@ -2089,17 +2089,17 @@
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>213 msec</t>
         </is>
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>5230</t>
+          <t>5230 msec</t>
         </is>
       </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
-          <t>2811.19</t>
+          <t>2811.19 msec</t>
         </is>
       </c>
       <c r="L22" s="1" t="inlineStr">
@@ -2166,17 +2166,17 @@
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>120 msec</t>
         </is>
       </c>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t>5218</t>
+          <t>5218 msec</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
-          <t>2794.09</t>
+          <t>2794.09 msec</t>
         </is>
       </c>
       <c r="L23" s="1" t="inlineStr">
